--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_28.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_28.xlsx
@@ -508,246 +508,246 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_9</t>
+          <t>model_1_28_7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9938138733531181</v>
+        <v>0.8368240776582194</v>
       </c>
       <c r="C2" t="n">
-        <v>0.804993455539331</v>
+        <v>0.6136974944700948</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7481772686252555</v>
+        <v>0.713548617718081</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9916160926257942</v>
+        <v>0.5944486636391655</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02574991731763417</v>
+        <v>0.3867583693690829</v>
       </c>
       <c r="G2" t="n">
-        <v>1.304009660731067</v>
+        <v>2.583206633237956</v>
       </c>
       <c r="H2" t="n">
-        <v>0.900755308606545</v>
+        <v>1.024619985016963</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03551845443910094</v>
+        <v>0.5524938108289921</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2123920073410479</v>
+        <v>1.017171695979184</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1604678077298814</v>
+        <v>0.621899002547104</v>
       </c>
       <c r="L2" t="n">
-        <v>1.395912105400441</v>
+        <v>0.7778029993643839</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1629950152926692</v>
+        <v>0.6316932901662936</v>
       </c>
       <c r="N2" t="n">
-        <v>137.3186477256864</v>
+        <v>35.89991029901383</v>
       </c>
       <c r="O2" t="n">
-        <v>278.6538202689028</v>
+        <v>72.86449388723965</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_8</t>
+          <t>model_1_28_6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9939613585113357</v>
+        <v>0.8367197566216552</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8048498496276184</v>
+        <v>0.6136922750558886</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7484442890884806</v>
+        <v>0.714107893603396</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9927675570629104</v>
+        <v>0.5965164406924879</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02513600640916669</v>
+        <v>0.387005630321639</v>
       </c>
       <c r="G3" t="n">
-        <v>1.304969954123933</v>
+        <v>2.583241535484786</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8998001918923249</v>
+        <v>1.02261948760387</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03064027111448706</v>
+        <v>0.5496768209149991</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2089714397215574</v>
+        <v>1.02170037252213</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1585433896735108</v>
+        <v>0.622097765887034</v>
       </c>
       <c r="L3" t="n">
-        <v>1.386473055274514</v>
+        <v>0.7776609451869347</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1610402895756231</v>
+        <v>0.6318951838301371</v>
       </c>
       <c r="N3" t="n">
-        <v>137.3669078849786</v>
+        <v>35.89863207484692</v>
       </c>
       <c r="O3" t="n">
-        <v>278.7020804281951</v>
+        <v>72.86321566307274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_7</t>
+          <t>model_1_28_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9940921772474364</v>
+        <v>0.8369266358041517</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8046908664768848</v>
+        <v>0.6136754025692615</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7488303763947518</v>
+        <v>0.7130131755687357</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9938494463308829</v>
+        <v>0.5925574257141506</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02459146992770167</v>
+        <v>0.3865152868069189</v>
       </c>
       <c r="G4" t="n">
-        <v>1.306033075184939</v>
+        <v>2.583354361880553</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8984191799844211</v>
+        <v>1.026535230538451</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02605684324994987</v>
+        <v>0.5550702966020437</v>
       </c>
       <c r="J4" t="n">
-        <v>0.20543678952745</v>
+        <v>1.012832756797728</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1568166761785929</v>
+        <v>0.6217035361061725</v>
       </c>
       <c r="L4" t="n">
-        <v>1.378100656164072</v>
+        <v>0.7779426530099087</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1592863820692405</v>
+        <v>0.6314947453243122</v>
       </c>
       <c r="N4" t="n">
-        <v>137.4107112941645</v>
+        <v>35.90116771968621</v>
       </c>
       <c r="O4" t="n">
-        <v>278.7458838373809</v>
+        <v>72.86575130791203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_6</t>
+          <t>model_1_28_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9941322767424551</v>
+        <v>0.8366069391806757</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8045189848836042</v>
+        <v>0.6136397751299205</v>
       </c>
       <c r="D5" t="n">
-        <v>0.749045980676271</v>
+        <v>0.7146858718887426</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9944931604983722</v>
+        <v>0.5987717391995995</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02442455470915716</v>
+        <v>0.3872730293893656</v>
       </c>
       <c r="G5" t="n">
-        <v>1.307182448190648</v>
+        <v>2.583592602731475</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8976479759708814</v>
+        <v>1.020552092790292</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02332974581085878</v>
+        <v>0.54660436533408</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2034600593708469</v>
+        <v>1.026508753315646</v>
       </c>
       <c r="K5" t="n">
-        <v>0.156283571462765</v>
+        <v>0.6223126460143371</v>
       </c>
       <c r="L5" t="n">
-        <v>1.375534288482875</v>
+        <v>0.7775073214375159</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1587448814870475</v>
+        <v>0.6321134481046439</v>
       </c>
       <c r="N5" t="n">
-        <v>137.4243326243299</v>
+        <v>35.89725066480802</v>
       </c>
       <c r="O5" t="n">
-        <v>278.7595051675463</v>
+        <v>72.86183425303385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_5</t>
+          <t>model_1_28_9</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9941738433782342</v>
+        <v>0.8370227122737596</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8043571863834273</v>
+        <v>0.6135930017432338</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7493690570338776</v>
+        <v>0.7125019592349331</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9951554305579373</v>
+        <v>0.5909284929222609</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0242515324780286</v>
+        <v>0.3862875670662428</v>
       </c>
       <c r="G6" t="n">
-        <v>1.308264395506344</v>
+        <v>2.583905376583621</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8964923505727664</v>
+        <v>1.028363821722437</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0205240362667131</v>
+        <v>0.5572894368318633</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2007435805852538</v>
+        <v>1.008869058659301</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1557290354366475</v>
+        <v>0.6215203673784495</v>
       </c>
       <c r="L6" t="n">
-        <v>1.37287402379301</v>
+        <v>0.7780734805429917</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1581816120728513</v>
+        <v>0.6313086918722292</v>
       </c>
       <c r="N6" t="n">
-        <v>137.4385509372502</v>
+        <v>35.9023463889736</v>
       </c>
       <c r="O6" t="n">
-        <v>278.7737234804666</v>
+        <v>72.86692997719942</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9941986006942252</v>
+        <v>0.8364892435443985</v>
       </c>
       <c r="C7" t="n">
-        <v>0.804196967759752</v>
+        <v>0.6135604511474193</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7497499229077508</v>
+        <v>0.7152854759569287</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9957377105270777</v>
+        <v>0.601173822413454</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02414847948927457</v>
+        <v>0.3875519907196597</v>
       </c>
       <c r="G7" t="n">
-        <v>1.3093357781806</v>
+        <v>2.584123042567714</v>
       </c>
       <c r="H7" t="n">
-        <v>0.895130015425794</v>
+        <v>1.018407343805432</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01805720503497229</v>
+        <v>0.5433319408842934</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1975314417101582</v>
+        <v>1.031522963857825</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1553978104391261</v>
+        <v>0.6225367384497559</v>
       </c>
       <c r="L7" t="n">
-        <v>1.371289555569589</v>
+        <v>0.7773470550391809</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1578451706127225</v>
+        <v>0.6323410697719103</v>
       </c>
       <c r="N7" t="n">
-        <v>137.4470677239447</v>
+        <v>35.8958105391791</v>
       </c>
       <c r="O7" t="n">
-        <v>278.7822402671611</v>
+        <v>72.86039412740492</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9941815682010652</v>
+        <v>0.8363677923470642</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8040038337127013</v>
+        <v>0.6134625731499068</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7501508556054919</v>
+        <v>0.7159070205890767</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9961320027811228</v>
+        <v>0.6037034938007285</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02421937769676648</v>
+        <v>0.3878398534531124</v>
       </c>
       <c r="G8" t="n">
-        <v>1.310627266442528</v>
+        <v>2.584777553187767</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8936959024133877</v>
+        <v>1.016184114695467</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01638678444992641</v>
+        <v>0.5398856995343281</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1949925893707373</v>
+        <v>1.036761493004889</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1556257616744942</v>
+        <v>0.6227678969352165</v>
       </c>
       <c r="L8" t="n">
-        <v>1.372379635131828</v>
+        <v>0.7771816746853639</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1580767118521801</v>
+        <v>0.6325758687724432</v>
       </c>
       <c r="N8" t="n">
-        <v>137.4412044699248</v>
+        <v>35.89432554679059</v>
       </c>
       <c r="O8" t="n">
-        <v>278.7763770131412</v>
+        <v>72.8589091350164</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9941270585789327</v>
+        <v>0.8362367135903354</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8038010911188942</v>
+        <v>0.6133322893107005</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7504370294065272</v>
+        <v>0.7165458078898104</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9963521878276991</v>
+        <v>0.6063566928677583</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02444627545412738</v>
+        <v>0.3881505353569363</v>
       </c>
       <c r="G9" t="n">
-        <v>1.311983007100861</v>
+        <v>2.585648761820441</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8926722753203944</v>
+        <v>1.013899209559758</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01545396968994301</v>
+        <v>0.5362711730070947</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1929615985997727</v>
+        <v>1.042431348323377</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1563530474731061</v>
+        <v>0.6230172833533082</v>
       </c>
       <c r="L9" t="n">
-        <v>1.375868250948308</v>
+        <v>0.7770031844634354</v>
       </c>
       <c r="M9" t="n">
-        <v>0.158815451675101</v>
+        <v>0.6328291827773248</v>
       </c>
       <c r="N9" t="n">
-        <v>137.4225548156593</v>
+        <v>35.89272407375739</v>
       </c>
       <c r="O9" t="n">
-        <v>278.7577273588757</v>
+        <v>72.85730766198321</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9940506837396726</v>
+        <v>0.8360989155684271</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8036007209764818</v>
+        <v>0.613182431133019</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7507603823910306</v>
+        <v>0.7172038168413521</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9964744193097321</v>
+        <v>0.6091141249205676</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02476418776151366</v>
+        <v>0.388477143213602</v>
       </c>
       <c r="G10" t="n">
-        <v>1.313322883165792</v>
+        <v>2.586650864144631</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8915156604439092</v>
+        <v>1.011545549693644</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01493613556656396</v>
+        <v>0.5325146469982565</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1975264326506985</v>
+        <v>1.048235664092503</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1573664124313497</v>
+        <v>0.6232793460508714</v>
       </c>
       <c r="L10" t="n">
-        <v>1.380756240660951</v>
+        <v>0.7768155446038156</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1598447761184436</v>
+        <v>0.6330953727004082</v>
       </c>
       <c r="N10" t="n">
-        <v>137.3967134226379</v>
+        <v>35.89104188866442</v>
       </c>
       <c r="O10" t="n">
-        <v>278.7318859658543</v>
+        <v>72.85562547689024</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9938255342842038</v>
+        <v>0.8359532009607198</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8031406447235871</v>
+        <v>0.6130136642038653</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7513178670963153</v>
+        <v>0.7178796608214131</v>
       </c>
       <c r="E11" t="n">
-        <v>0.996400172054033</v>
+        <v>0.6119644393683809</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02570137838067996</v>
+        <v>0.3888225149036245</v>
       </c>
       <c r="G11" t="n">
-        <v>1.316399415187355</v>
+        <v>2.587779409376982</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8895215699779264</v>
+        <v>1.009128094964652</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01525068433852331</v>
+        <v>0.5286315847318011</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2079620899070385</v>
+        <v>1.054167734277675</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1603164944123965</v>
+        <v>0.623556344610192</v>
       </c>
       <c r="L11" t="n">
-        <v>1.395165805810954</v>
+        <v>0.7766171247124695</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1628413189416918</v>
+        <v>0.633376733710141</v>
       </c>
       <c r="N11" t="n">
-        <v>137.3224213100594</v>
+        <v>35.88926459873952</v>
       </c>
       <c r="O11" t="n">
-        <v>278.6575938532758</v>
+        <v>72.85384818696534</v>
       </c>
     </row>
   </sheetData>
